--- a/jupyter/PredictResult(balanced).xlsx
+++ b/jupyter/PredictResult(balanced).xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9046999999999999</v>
+        <v>0.9703000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8504</v>
+        <v>0.9844000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9815</v>
+        <v>0.9558</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9112</v>
+        <v>0.9698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8286</v>
+        <v>0.9848</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9051</v>
+        <v>0.9703000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8361</v>
+        <v>0.9607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7914</v>
+        <v>0.9659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9113</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.847</v>
+        <v>0.9605</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7616000000000001</v>
+        <v>0.9663</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8365</v>
+        <v>0.9607</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8267</v>
+        <v>0.9607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7913</v>
+        <v>0.9644</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8858</v>
+        <v>0.9568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8358</v>
+        <v>0.9605</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7682</v>
+        <v>0.9646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.827</v>
+        <v>0.9607</v>
       </c>
     </row>
   </sheetData>
